--- a/デスクトップ/2_配布用.xlsx
+++ b/デスクトップ/2_配布用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6da5dc5d3f7b4e68/デスクトップ/xbp/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F58686-80F6-45D7-8540-036CA77653A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="544" documentId="8_{89F58686-80F6-45D7-8540-036CA77653A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{329C5788-B131-43C0-9AD5-674E4E4D9C97}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_例1" sheetId="5" r:id="rId1"/>
@@ -23,68 +23,97 @@
     <sheet name="4_例題1" sheetId="12" r:id="rId8"/>
     <sheet name="4_例題2" sheetId="13" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'3_例題'!$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'4_例題1'!$C$3:$C$4</definedName>
     <definedName name="solver_adj" localSheetId="8" hidden="1">'4_例題2'!$C$2:$C$3</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'2_例3'!$J$13</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'3_例題'!$C$3</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'4_例題1'!$F$14</definedName>
     <definedName name="solver_opt" localSheetId="8" hidden="1">'4_例題2'!$H$7</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -108,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -242,14 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>q</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
       <t>バンゴウ</t>
@@ -511,6 +532,127 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カトレア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チューリップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入れ値</t>
+    <rPh sb="0" eb="2">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入数</t>
+    <rPh sb="0" eb="2">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰越数</t>
+    <rPh sb="0" eb="2">
+      <t>クリコシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入庫</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫金額</t>
+    <rPh sb="0" eb="4">
+      <t>ザイコキンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリジナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炭焼き</t>
+    <rPh sb="0" eb="2">
+      <t>スミヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コロンビア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キリマンジャロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傾き</t>
+    <rPh sb="0" eb="1">
+      <t>カタム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y切片</t>
+    <rPh sb="1" eb="3">
+      <t>セッペン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +664,7 @@
     <numFmt numFmtId="177" formatCode="\$#,##0;\-\$#,##0"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +736,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -841,9 +991,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,6 +1039,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -907,6 +1057,960 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="99000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16088717330529123"/>
+                  <c:y val="0.39968503937007877"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4_例題1'!$C$7:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>153.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4_例題1'!$D$7:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA3C-4E67-93B4-4F5B40B28287}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="769635504"/>
+        <c:axId val="769635984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="769635504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="769635984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="769635984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="42"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="769635504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent5">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8C9329-339A-6787-921A-FE71A8D84B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,13 +2286,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4">
         <v>0.9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1">
         <v>0.8</v>
@@ -1196,7 +2300,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4">
         <v>0.1</v>
@@ -1210,19 +2314,19 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="B3" s="23"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>0.7</v>
@@ -1246,7 +2350,7 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1280,7 +2384,7 @@
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1292,109 +2396,344 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63AA7F9-4840-4E05-8CAF-73F730A8BDEA}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D6" si="0">B3*C3</f>
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <f>SUM(C2:C6)</f>
         <v>103</v>
       </c>
       <c r="D7">
         <f>SUM(D2:D6)</f>
-        <v>1016</v>
+        <v>1474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E3A84-0BBB-4548-9535-A931A8A544B0}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>136</v>
+      </c>
+      <c r="D2">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>180</v>
+      </c>
+      <c r="D3">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>184</v>
+      </c>
+      <c r="D4">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>70000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4AC0C5-8C2C-490D-B692-7853448C2C13}">
+  <dimension ref="M1:R7"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2">
+        <v>780</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="3" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3">
+        <v>780</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="4" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4">
+        <v>980</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="5" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5">
+        <v>1020</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="6" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6">
+        <v>1120</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="7" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>13</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>18</v>
+      </c>
+      <c r="R7">
+        <v>16880</v>
       </c>
     </row>
   </sheetData>
@@ -1415,13 +2754,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4">
         <v>0.9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1">
         <v>0.8</v>
@@ -1429,7 +2768,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4">
         <v>0.1</v>
@@ -1443,19 +2782,19 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="B3" s="23"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>0.7</v>
@@ -1479,7 +2818,7 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1513,7 +2852,7 @@
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1547,7 +2886,7 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -1561,7 +2900,7 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
@@ -1575,7 +2914,7 @@
       <c r="B12" s="1">
         <v>-1</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1588,7 +2927,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1617,7 +2956,7 @@
       <c r="C2" s="7">
         <v>55</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <f>C2/B2^2</f>
         <v>17.165506694547613</v>
       </c>
@@ -1632,7 +2971,7 @@
       <c r="C3" s="1">
         <v>61</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <f t="shared" ref="D3:D21" si="0">C3/B3^2</f>
         <v>19.470777873535699</v>
       </c>
@@ -1647,7 +2986,7 @@
       <c r="C4" s="1">
         <v>64</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <f t="shared" si="0"/>
         <v>19.753086419753085</v>
       </c>
@@ -1662,7 +3001,7 @@
       <c r="C5" s="1">
         <v>64</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <f t="shared" si="0"/>
         <v>20.897959183673468</v>
       </c>
@@ -1677,7 +3016,7 @@
       <c r="C6" s="1">
         <v>62</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <f t="shared" si="0"/>
         <v>20.957274202271499</v>
       </c>
@@ -1692,7 +3031,7 @@
       <c r="C7" s="1">
         <v>69</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <f t="shared" si="0"/>
         <v>21.534908398614277</v>
       </c>
@@ -1708,7 +3047,7 @@
       <c r="C8" s="1">
         <v>56</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <f t="shared" si="0"/>
         <v>21.604104779908187</v>
       </c>
@@ -1723,7 +3062,7 @@
       <c r="C9" s="1">
         <v>59</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <f t="shared" si="0"/>
         <v>21.936347412254616</v>
       </c>
@@ -1738,7 +3077,7 @@
       <c r="C10" s="1">
         <v>63</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <f t="shared" si="0"/>
         <v>22.321428571428569</v>
       </c>
@@ -1753,7 +3092,7 @@
       <c r="C11" s="1">
         <v>73</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <f t="shared" si="0"/>
         <v>23.040020199469762</v>
       </c>
@@ -1768,7 +3107,7 @@
       <c r="C12" s="1">
         <v>75</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <f t="shared" si="0"/>
         <v>23.93948099205209</v>
       </c>
@@ -1783,7 +3122,7 @@
       <c r="C13" s="1">
         <v>71</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <f t="shared" si="0"/>
         <v>25.458065904119906</v>
       </c>
@@ -1798,7 +3137,7 @@
       <c r="C14" s="1">
         <v>69</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <f t="shared" si="0"/>
         <v>25.654372397382506</v>
       </c>
@@ -1813,7 +3152,7 @@
       <c r="C15" s="1">
         <v>68</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <f t="shared" si="0"/>
         <v>25.910684346898332</v>
       </c>
@@ -1828,7 +3167,7 @@
       <c r="C16" s="1">
         <v>65</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <f t="shared" si="0"/>
         <v>26.037493991347535</v>
       </c>
@@ -1843,7 +3182,7 @@
       <c r="C17" s="1">
         <v>75</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <f t="shared" si="0"/>
         <v>26.259584748433181</v>
       </c>
@@ -1858,7 +3197,7 @@
       <c r="C18" s="1">
         <v>74</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <f t="shared" si="0"/>
         <v>26.533758829646096</v>
       </c>
@@ -1873,7 +3212,7 @@
       <c r="C19" s="1">
         <v>71</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <f t="shared" si="0"/>
         <v>27.053802773967377</v>
       </c>
@@ -1888,7 +3227,7 @@
       <c r="C20" s="1">
         <v>63</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <f t="shared" si="0"/>
         <v>27.268005540166204</v>
       </c>
@@ -1903,7 +3242,7 @@
       <c r="C21" s="1">
         <v>66</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <f t="shared" si="0"/>
         <v>28.566481994459835</v>
       </c>
@@ -1954,235 +3293,235 @@
       <c r="B3" s="11">
         <v>5000000</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <f>B3/$B$1</f>
         <v>34965.034965034967</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11">
         <v>6000000</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <f t="shared" ref="C4:C22" si="0">B4/$B$1</f>
         <v>41958.041958041955</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="11">
         <v>7000000</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <f t="shared" si="0"/>
         <v>48951.04895104895</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="11">
         <v>8000000</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <f t="shared" si="0"/>
         <v>55944.055944055945</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11">
         <v>9000000</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <f t="shared" si="0"/>
         <v>62937.062937062939</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="11">
         <v>10000000</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <f t="shared" si="0"/>
         <v>69930.069930069934</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="11">
         <v>11000000</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <f>B9/$B$1</f>
         <v>76923.076923076922</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="11">
         <v>12000000</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <f t="shared" si="0"/>
         <v>83916.08391608391</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="11">
         <v>13000000</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <f t="shared" si="0"/>
         <v>90909.090909090912</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="11">
         <v>14000000</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <f t="shared" si="0"/>
         <v>97902.097902097899</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="11">
         <v>15000000</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <f t="shared" si="0"/>
         <v>104895.1048951049</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="11">
         <v>16000000</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <f t="shared" si="0"/>
         <v>111888.11188811189</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="11">
         <v>17000000</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <f t="shared" si="0"/>
         <v>118881.11888111888</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="11">
         <v>18000000</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <f t="shared" si="0"/>
         <v>125874.12587412588</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="11">
         <v>19000000</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <f t="shared" si="0"/>
         <v>132867.13286713287</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="11">
         <v>20000000</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <f t="shared" si="0"/>
         <v>139860.13986013987</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="11">
         <v>21000000</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <f t="shared" si="0"/>
         <v>146853.14685314684</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="11">
         <v>22000000</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <f t="shared" si="0"/>
         <v>153846.15384615384</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="11">
         <v>23000000</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <f t="shared" si="0"/>
         <v>160839.16083916085</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="11">
         <v>24000000</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <f t="shared" si="0"/>
         <v>167832.16783216782</v>
       </c>
@@ -2240,39 +3579,39 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <f>B$1*$A2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <f t="shared" ref="C2:J10" si="0">C$1*$A2</f>
         <v>2</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="23">
         <f>J$1*$A2</f>
         <v>9</v>
       </c>
@@ -2281,39 +3620,39 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <f t="shared" ref="B3:B10" si="1">B$1*$A3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2322,39 +3661,39 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2363,39 +3702,39 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -2404,39 +3743,39 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2445,39 +3784,39 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -2486,39 +3825,39 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -2527,39 +3866,39 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
@@ -2568,39 +3907,39 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
@@ -2616,7 +3955,7 @@
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2636,11 +3975,11 @@
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <f>3*B3^2+1</f>
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2653,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2676,24 +4015,24 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="2:6" ht="14" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="23">
-        <v>1</v>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.4100069635513699</v>
       </c>
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="2:6" ht="14" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="22">
+        <v>-12.057393370114173</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -2704,19 +4043,19 @@
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:6" ht="14" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
@@ -2728,7 +4067,10 @@
       <c r="D7" s="14">
         <v>45.5</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="28">
+        <f>$C$3*C7+$C$4</f>
+        <v>50.796674142310835</v>
+      </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -2741,7 +4083,10 @@
       <c r="D8" s="14">
         <v>56</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="28">
+        <f t="shared" ref="E8:E13" si="0">$C$3*C8+$C$4</f>
+        <v>55.552754919506725</v>
+      </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -2754,7 +4099,10 @@
       <c r="D9" s="14">
         <v>55</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>56.86477720287111</v>
+      </c>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -2767,7 +4115,10 @@
       <c r="D10" s="14">
         <v>52.8</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="28">
+        <f t="shared" si="0"/>
+        <v>50.058661607918367</v>
+      </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -2780,7 +4131,10 @@
       <c r="D11" s="14">
         <v>55.6</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>52.64170547829201</v>
+      </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -2793,7 +4147,10 @@
       <c r="D12" s="14">
         <v>50.8</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
+        <v>52.190697818385487</v>
+      </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -2806,18 +4163,25 @@
       <c r="D13" s="14">
         <v>56.4</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="28"/>
+      <c r="E13" s="28">
+        <f t="shared" si="0"/>
+        <v>53.994728458011522</v>
+      </c>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="29"/>
+        <v>21</v>
+      </c>
+      <c r="F14" s="28">
+        <f>SUMXMY2(D7:D13,E7:E13)</f>
+        <v>55.71799341802744</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2842,10 +4206,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2856,15 +4220,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="32"/>
+        <v>24</v>
+      </c>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2879,8 +4243,8 @@
       <c r="F3" s="14">
         <v>13.3</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E4" s="1">
@@ -2889,8 +4253,8 @@
       <c r="F4" s="14">
         <v>15.8</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="33"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" s="1">
@@ -2899,8 +4263,8 @@
       <c r="F5" s="14">
         <v>19.399999999999999</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="33"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E6" s="1">
@@ -2909,29 +4273,29 @@
       <c r="F6" s="14">
         <v>22.3</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="34"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F7" s="22"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="31"/>
+        <v>25</v>
+      </c>
+      <c r="H7" s="30"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
